--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Fall.120220.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Fall.120220.xlsx_with_dialog_acts.xlsx
@@ -1441,12 +1441,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2575,12 +2575,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3629,12 +3629,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4133,12 +4133,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4469,12 +4469,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4805,12 +4805,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5477,12 +5477,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5687,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5855,12 +5855,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7241,12 +7241,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7703,12 +7703,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8123,12 +8123,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8165,12 +8165,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8249,12 +8249,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8421,12 +8421,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8463,12 +8463,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8673,12 +8673,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8715,12 +8715,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9051,12 +9051,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9093,12 +9093,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9135,12 +9135,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9219,12 +9219,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9681,12 +9681,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9807,12 +9807,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10479,12 +10479,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10561,12 +10561,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10601,12 +10601,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10965,12 +10965,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11605,12 +11605,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12169,12 +12169,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12209,12 +12209,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12733,12 +12733,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12773,12 +12773,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12893,12 +12893,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12973,12 +12973,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13613,12 +13613,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13733,12 +13733,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14213,12 +14213,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14333,12 +14333,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14413,12 +14413,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14653,12 +14653,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15133,12 +15133,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15453,12 +15453,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15573,12 +15573,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15653,12 +15653,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15733,12 +15733,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16293,12 +16293,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16413,12 +16413,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16853,12 +16853,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17577,12 +17577,12 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18229,12 +18229,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18597,12 +18597,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18917,12 +18917,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18957,12 +18957,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19157,12 +19157,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19437,12 +19437,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20201,12 +20201,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20325,12 +20325,12 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20689,12 +20689,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20809,12 +20809,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21009,12 +21009,12 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21209,12 +21209,12 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21249,12 +21249,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21527,12 +21527,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22127,12 +22127,12 @@
       <c r="H529" t="inlineStr"/>
       <c r="I529" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22287,12 +22287,12 @@
       <c r="H533" t="inlineStr"/>
       <c r="I533" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22327,12 +22327,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22367,12 +22367,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22527,12 +22527,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22567,12 +22567,12 @@
       <c r="H540" t="inlineStr"/>
       <c r="I540" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22727,12 +22727,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22927,12 +22927,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23167,12 +23167,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23207,12 +23207,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23607,12 +23607,12 @@
       <c r="H566" t="inlineStr"/>
       <c r="I566" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23727,12 +23727,12 @@
       <c r="H569" t="inlineStr"/>
       <c r="I569" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24087,12 +24087,12 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24487,12 +24487,12 @@
       <c r="H588" t="inlineStr"/>
       <c r="I588" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25047,12 +25047,12 @@
       <c r="H602" t="inlineStr"/>
       <c r="I602" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25447,12 +25447,12 @@
       <c r="H612" t="inlineStr"/>
       <c r="I612" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25807,12 +25807,12 @@
       <c r="H621" t="inlineStr"/>
       <c r="I621" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
